--- a/alg.xlsx
+++ b/alg.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24620" windowHeight="14220"/>
+    <workbookView windowWidth="24620" windowHeight="14220" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="二叉树" sheetId="1" r:id="rId1"/>
     <sheet name="BFS DFS TOPO 回溯" sheetId="2" r:id="rId2"/>
     <sheet name="DP" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>2.1 二叉树</t>
   </si>
@@ -145,6 +146,42 @@
   </si>
   <si>
     <t>Object</t>
+  </si>
+  <si>
+    <t>解释</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>前序遍历</t>
+  </si>
+  <si>
+    <t>1.思考当前的节点需要做什么事情</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>中序遍历</t>
+  </si>
+  <si>
+    <t>2.应该在什么时候去做 前？中？后？</t>
+  </si>
+  <si>
+    <t>后续遍历</t>
+  </si>
+  <si>
+    <t>前序中序 构建树</t>
+  </si>
+  <si>
+    <t>想还原一颗二叉树，只需要确定他的根+左右子树</t>
+  </si>
+  <si>
+    <t>中序后序 遍历树</t>
   </si>
 </sst>
 </file>
@@ -152,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -166,6 +203,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF262626"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -180,8 +224,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF262626"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -209,6 +262,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -217,6 +292,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -226,53 +309,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,38 +346,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,19 +383,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,7 +437,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,19 +527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,121 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +627,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -598,23 +644,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,16 +681,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,11 +706,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,148 +725,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -837,10 +874,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -849,14 +892,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1188,8 +1225,8 @@
   <sheetPr/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1202,61 +1239,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="17.55" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="10"/>
     </row>
     <row r="4" ht="17.55" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="1">
         <v>144</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" ht="17.55" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="1">
         <v>94</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
@@ -1299,19 +1336,19 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>98</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1319,7 +1356,7 @@
       <c r="A13">
         <v>99</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1339,13 +1376,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
@@ -1376,7 +1413,7 @@
       <c r="A23">
         <v>114</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
@@ -1392,7 +1429,7 @@
       <c r="A25">
         <v>116</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
@@ -1403,7 +1440,7 @@
       <c r="A26">
         <v>117</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1413,13 +1450,13 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" ht="17" spans="1:3">
       <c r="A29">
@@ -1428,16 +1465,16 @@
       <c r="B29" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>96</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1445,43 +1482,43 @@
       <c r="A31">
         <v>124</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="1"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>235</v>
       </c>
-      <c r="C32" s="1"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <v>236</v>
       </c>
-      <c r="C33" s="1"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <v>250</v>
       </c>
-      <c r="C34" s="1"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <v>333</v>
       </c>
-      <c r="C35" s="1"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>100</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
@@ -1495,7 +1532,7 @@
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="1"/>
+      <c r="C37" s="3"/>
       <c r="E37" t="s">
         <v>19</v>
       </c>
@@ -1504,19 +1541,19 @@
       <c r="A38">
         <v>104</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="1"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <v>105</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
@@ -1525,94 +1562,94 @@
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="1"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <v>108</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
         <v>109</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
         <v>110</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
         <v>111</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="1"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
         <v>112</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="1"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
         <v>113</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="1"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
         <v>129</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="1"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>222</v>
       </c>
-      <c r="C48" s="1"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
         <v>226</v>
       </c>
-      <c r="C49" s="1"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
         <v>298</v>
       </c>
-      <c r="C50" s="1"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
         <v>366</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -1673,28 +1710,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1724,28 +1761,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1966,4 +2003,105 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="17.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="64.9038461538462" customWidth="1"/>
+    <col min="3" max="3" width="23.8653846153846" customWidth="1"/>
+    <col min="4" max="4" width="57.2019230769231" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17.55" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" ht="17.55" spans="1:4">
+      <c r="A2" s="1">
+        <v>144</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" ht="17.55" spans="1:4">
+      <c r="A3" s="1">
+        <v>94</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>145</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/alg.xlsx
+++ b/alg.xlsx
@@ -10,14 +10,14 @@
     <sheet name="二叉树" sheetId="1" r:id="rId1"/>
     <sheet name="BFS DFS TOPO 回溯" sheetId="2" r:id="rId2"/>
     <sheet name="DP" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="二叉树&amp;&amp;习题" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
   <si>
     <t>2.1 二叉树</t>
   </si>
@@ -154,6 +154,9 @@
     <t>tips</t>
   </si>
   <si>
+    <t>第一课 前中后序遍历详解</t>
+  </si>
+  <si>
     <t>Binary Tree Preorder Traversal</t>
   </si>
   <si>
@@ -175,6 +178,18 @@
     <t>后续遍历</t>
   </si>
   <si>
+    <t>N-ary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>N叉树前遍历</t>
+  </si>
+  <si>
+    <t>N-ary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>N叉树后遍历</t>
+  </si>
+  <si>
     <t>前序中序 构建树</t>
   </si>
   <si>
@@ -182,6 +197,77 @@
   </si>
   <si>
     <t>中序后序 遍历树</t>
+  </si>
+  <si>
+    <t>二叉树的最大深度</t>
+  </si>
+  <si>
+    <t>两种解法：
+1.回溯算法前身
+2.动归前身</t>
+  </si>
+  <si>
+    <t>Maximum Depth of N-ary Tree</t>
+  </si>
+  <si>
+    <t>N叉树的最大深度</t>
+  </si>
+  <si>
+    <t>二叉树的最小深度</t>
+  </si>
+  <si>
+    <t>有坑</t>
+  </si>
+  <si>
+    <t>路径总和</t>
+  </si>
+  <si>
+    <t>路径总和打印列表</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>翻转一颗二叉树</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>左子树之和</t>
+  </si>
+  <si>
+    <t>第二课 用分解的思路解决二叉树问题</t>
+  </si>
+  <si>
+    <t>相同树</t>
+  </si>
+  <si>
+    <t>树转链表</t>
+  </si>
+  <si>
+    <t>习题1 用遍历的思维解题</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>二叉树的所有路径</t>
+  </si>
+  <si>
+    <t>求根节点到叶节点的数字之和</t>
+  </si>
+  <si>
+    <t>Binary Tree Right Side View</t>
+  </si>
+  <si>
+    <t>二叉树的右视图</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>二叉树最长连续序列</t>
   </si>
 </sst>
 </file>
@@ -194,7 +280,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,7 +289,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -219,6 +312,13 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF262626"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -368,12 +468,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -725,165 +837,189 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -892,10 +1028,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1225,8 +1367,8 @@
   <sheetPr/>
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B40"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -1239,61 +1381,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="17.55" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" ht="17.55" spans="1:5">
-      <c r="A4" s="1">
+      <c r="A4" s="15">
         <v>144</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" ht="17.55" spans="1:5">
-      <c r="A5" s="1">
+      <c r="A5" s="15">
         <v>94</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
@@ -1336,19 +1478,19 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>98</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1356,7 +1498,7 @@
       <c r="A13">
         <v>99</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1376,13 +1518,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
@@ -1413,7 +1555,7 @@
       <c r="A23">
         <v>114</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="17" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
@@ -1429,7 +1571,7 @@
       <c r="A25">
         <v>116</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="18" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
@@ -1440,7 +1582,7 @@
       <c r="A26">
         <v>117</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="18" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1450,31 +1592,31 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
     </row>
     <row r="29" ht="17" spans="1:3">
       <c r="A29">
         <v>95</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="11"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>96</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1482,43 +1624,43 @@
       <c r="A31">
         <v>124</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>235</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="11"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <v>236</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="11"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <v>250</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="11"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <v>333</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="11"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>100</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
@@ -1532,7 +1674,7 @@
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="11"/>
       <c r="E37" t="s">
         <v>19</v>
       </c>
@@ -1541,19 +1683,19 @@
       <c r="A38">
         <v>104</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <v>105</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
@@ -1562,94 +1704,94 @@
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <v>108</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
         <v>109</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="11"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
         <v>110</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="11"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
         <v>111</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
         <v>112</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
         <v>113</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
         <v>129</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>222</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
         <v>226</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
         <v>298</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
         <v>366</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -1710,28 +1852,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1761,28 +1903,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2008,99 +2150,304 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.6153846153846" customWidth="1"/>
-    <col min="2" max="2" width="64.9038461538462" customWidth="1"/>
-    <col min="3" max="3" width="23.8653846153846" customWidth="1"/>
-    <col min="4" max="4" width="57.2019230769231" customWidth="1"/>
+    <col min="1" max="1" width="17.6153846153846" style="2" customWidth="1"/>
+    <col min="2" max="2" width="64.9038461538462" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.0288461538462" style="2" customWidth="1"/>
+    <col min="4" max="4" width="57.2019230769231" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.55" spans="1:4">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="2:4">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" ht="17.55" spans="1:4">
-      <c r="A2" s="1">
+    <row r="2" s="1" customFormat="1" ht="18.35" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" ht="18.35" spans="1:4">
+      <c r="A3" s="5">
         <v>144</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" ht="17.55" spans="1:4">
-      <c r="A3" s="1">
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="18.35" spans="1:4">
+      <c r="A4" s="5">
         <v>94</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="D4" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>145</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+      <c r="C5" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>589</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>590</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>105</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="C8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>106</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>54</v>
+      <c r="C9" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" ht="53" spans="1:4">
+      <c r="A10" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>559</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>111</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>112</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>113</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>226</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>404</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>100</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>114</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:4">
+      <c r="A20" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>257</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>129</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>199</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>298</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B10" r:id="rId1" display="Maximum Depth of Binary Tree" tooltip="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="B13" r:id="rId2" display="Path Sum" tooltip="https://leetcode.com/problems/path-sum/"/>
+    <hyperlink ref="B15" r:id="rId3" display="Invert Binary Tree" tooltip="https://leetcode.com/problems/invert-binary-tree/"/>
+    <hyperlink ref="B18" r:id="rId4" display="Same Tree" tooltip="https://leetcode.com/problems/same-tree/"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/alg.xlsx
+++ b/alg.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>2.1 二叉树</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>tips</t>
+  </si>
+  <si>
+    <t>熟练程度</t>
   </si>
   <si>
     <t>第一课 前中后序遍历详解</t>
@@ -244,6 +247,30 @@
   </si>
   <si>
     <t>树转链表</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>杨辉三角2</t>
+  </si>
+  <si>
+    <t>培养递归思维</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>杨辉三角</t>
+  </si>
+  <si>
+    <t>一棵树的子树</t>
+  </si>
+  <si>
+    <t>Linked List in Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树中的链表</t>
   </si>
   <si>
     <t>习题1 用遍历的思维解题</t>
@@ -303,14 +330,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -982,36 +1009,54 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1019,7 +1064,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1034,7 +1079,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1381,61 +1426,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="17.55" spans="1:5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" ht="17.55" spans="1:5">
-      <c r="A4" s="15">
+      <c r="A4" s="21">
         <v>144</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" ht="17.55" spans="1:5">
-      <c r="A5" s="15">
+      <c r="A5" s="21">
         <v>94</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
@@ -1478,19 +1523,19 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>98</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1498,7 +1543,7 @@
       <c r="A13">
         <v>99</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1518,13 +1563,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
@@ -1555,7 +1600,7 @@
       <c r="A23">
         <v>114</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="23" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
@@ -1571,7 +1616,7 @@
       <c r="A25">
         <v>116</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
@@ -1582,7 +1627,7 @@
       <c r="A26">
         <v>117</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="24" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1592,31 +1637,31 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" ht="17" spans="1:3">
       <c r="A29">
         <v>95</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>96</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1624,43 +1669,43 @@
       <c r="A31">
         <v>124</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="11"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>235</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <v>236</v>
       </c>
-      <c r="C33" s="11"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <v>250</v>
       </c>
-      <c r="C34" s="11"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <v>333</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>100</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
@@ -1674,7 +1719,7 @@
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="11"/>
+      <c r="C37" s="17"/>
       <c r="E37" t="s">
         <v>19</v>
       </c>
@@ -1683,19 +1728,19 @@
       <c r="A38">
         <v>104</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="11"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <v>105</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="11"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
@@ -1704,94 +1749,94 @@
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <v>108</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
         <v>109</v>
       </c>
-      <c r="B42" s="17" t="s">
+      <c r="B42" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
         <v>110</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
         <v>111</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="11"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
         <v>112</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
         <v>113</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="11"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
         <v>129</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="11"/>
+      <c r="C47" s="17"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>222</v>
       </c>
-      <c r="C48" s="11"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
         <v>226</v>
       </c>
-      <c r="C49" s="11"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
         <v>298</v>
       </c>
-      <c r="C50" s="11"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
         <v>366</v>
       </c>
-      <c r="C51" s="11"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -1852,28 +1897,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1903,28 +1948,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2150,303 +2195,385 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.6153846153846" style="2" customWidth="1"/>
-    <col min="2" max="2" width="64.9038461538462" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.0288461538462" style="2" customWidth="1"/>
-    <col min="4" max="4" width="57.2019230769231" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.23076923076923" style="2"/>
+    <col min="1" max="1" width="17.6153846153846" style="3" customWidth="1"/>
+    <col min="2" max="2" width="64.9038461538462" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.0288461538462" style="4" customWidth="1"/>
+    <col min="4" max="4" width="57.2019230769231" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.23076923076923" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="2:5">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="E1" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18.35" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="A2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" ht="18.35" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="8">
         <v>144</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="4" ht="18.35" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="8">
         <v>94</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="D4" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
+      <c r="A5" s="3">
         <v>145</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>52</v>
+      <c r="C5" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
+      <c r="A6" s="3">
         <v>589</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <v>590</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>56</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="A8" s="3">
         <v>105</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>58</v>
       </c>
+      <c r="D8" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
+      <c r="A9" s="3">
         <v>106</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>59</v>
+      <c r="C9" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="53" spans="1:4">
-      <c r="A10" s="2">
+      <c r="A10" s="3">
         <v>104</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="D10" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="A11" s="3">
         <v>559</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="C11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="12"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="A12" s="3">
         <v>111</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="C12" s="6" t="s">
         <v>65</v>
       </c>
+      <c r="D12" s="6" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
+      <c r="A13" s="3">
         <v>112</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>66</v>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2">
+      <c r="A14" s="3">
         <v>113</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>67</v>
+      <c r="C14" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
+      <c r="A15" s="3">
         <v>226</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>69</v>
       </c>
+      <c r="C15" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2">
+      <c r="A16" s="3">
         <v>404</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>71</v>
       </c>
+      <c r="C16" s="6" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:4">
-      <c r="A17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+      <c r="A17" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="3">
         <v>100</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="C18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="3">
         <v>114</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:4">
-      <c r="A20" s="10" t="s">
+      <c r="C19" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="1:5">
+      <c r="A20" s="13">
+        <v>119</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="1:5">
+      <c r="A21" s="13">
+        <v>118</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="1:4">
+      <c r="A22" s="13">
+        <v>572</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="1:4">
+      <c r="A23" s="13">
+        <v>1367</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:4">
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:4">
+      <c r="A25" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3">
         <v>257</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="B26" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="3">
         <v>129</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
+      <c r="C27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="3">
         <v>199</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="B28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
         <v>298</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>82</v>
+      <c r="B29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" display="Maximum Depth of Binary Tree" tooltip="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
     <hyperlink ref="B13" r:id="rId2" display="Path Sum" tooltip="https://leetcode.com/problems/path-sum/"/>
-    <hyperlink ref="B15" r:id="rId3" display="Invert Binary Tree" tooltip="https://leetcode.com/problems/invert-binary-tree/"/>
-    <hyperlink ref="B18" r:id="rId4" display="Same Tree" tooltip="https://leetcode.com/problems/same-tree/"/>
+    <hyperlink ref="B18" r:id="rId3" display="Same Tree" tooltip="https://leetcode.com/problems/same-tree/"/>
+    <hyperlink ref="B15" r:id="rId4" display="Invert Binary Tree" tooltip="https://leetcode.com/problems/invert-binary-tree/"/>
+    <hyperlink ref="B20" r:id="rId5" display="Pascal's Triangle II" tooltip="https://leetcode.cn/problems/pascals-triangle-ii/"/>
+    <hyperlink ref="B21" r:id="rId6" display="Pascal's Triangle" tooltip="https://leetcode.cn/problems/pascals-triangle/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/alg.xlsx
+++ b/alg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24620" windowHeight="14220" activeTab="3"/>
+    <workbookView windowWidth="22120" windowHeight="14360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="二叉树" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="122">
   <si>
     <t>2.1 二叉树</t>
   </si>
@@ -295,6 +295,96 @@
   </si>
   <si>
     <t>二叉树最长连续序列</t>
+  </si>
+  <si>
+    <t>Smallest String Starting From Leaf</t>
+  </si>
+  <si>
+    <t>从页节点的最小字符串</t>
+  </si>
+  <si>
+    <t>Sum of Root To Leaf Binary Numbers</t>
+  </si>
+  <si>
+    <t>从根到叶的二进制数之和</t>
+  </si>
+  <si>
+    <t>Pseudo-Palindromic Paths in a Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树中的伪回文路径</t>
+  </si>
+  <si>
+    <t>习题2 用遍历的思维解题</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>最接近的二叉搜索树值</t>
+  </si>
+  <si>
+    <t>Search in a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>二叉搜索树种的搜索</t>
+  </si>
+  <si>
+    <t>Merge Two Binary Trees</t>
+  </si>
+  <si>
+    <t>合并二叉树</t>
+  </si>
+  <si>
+    <t>Add One Row to Tree</t>
+  </si>
+  <si>
+    <t>在二叉树中增加一行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Flip Binary Tree To Match Preorder Traversal</t>
+  </si>
+  <si>
+    <t>翻转二叉树以匹配先序遍历</t>
+  </si>
+  <si>
+    <t>Vertical Order Traversal of a Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树的垂序遍历</t>
+  </si>
+  <si>
+    <t>Cousins in Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树的堂兄弟节点</t>
+  </si>
+  <si>
+    <t>Sum of Nodes with Even-Valued Grandparent</t>
+  </si>
+  <si>
+    <t>祖父节点值为偶数的节点之和</t>
+  </si>
+  <si>
+    <t>Count Good Nodes in Binary Tree</t>
+  </si>
+  <si>
+    <t>统计二叉树种好节点的数目</t>
+  </si>
+  <si>
+    <t>Find All The Lonely Nodes</t>
+  </si>
+  <si>
+    <t>寻找所有独生节点</t>
+  </si>
+  <si>
+    <t>Find Nearest Right Node in Binary Tree</t>
+  </si>
+  <si>
+    <t>找到二叉树中最近的右侧节点</t>
+  </si>
+  <si>
+    <t>习题3 用遍历的思维解题</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1060,6 +1150,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,61 +1519,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="17.55" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="26"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" ht="17.55" spans="1:5">
-      <c r="A4" s="21">
+      <c r="A4" s="22">
         <v>144</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
     </row>
     <row r="5" ht="17.55" spans="1:5">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>94</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
@@ -1523,19 +1616,19 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>98</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="24" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1543,7 +1636,7 @@
       <c r="A13">
         <v>99</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="24" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1563,13 +1656,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
@@ -1600,7 +1693,7 @@
       <c r="A23">
         <v>114</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
@@ -1616,7 +1709,7 @@
       <c r="A25">
         <v>116</v>
       </c>
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
@@ -1627,7 +1720,7 @@
       <c r="A26">
         <v>117</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="25" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1637,31 +1730,31 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" ht="17" spans="1:3">
       <c r="A29">
         <v>95</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="18"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>96</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1669,43 +1762,43 @@
       <c r="A31">
         <v>124</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="18"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>235</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="18"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <v>236</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="18"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <v>250</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="18"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <v>333</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="18"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>100</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
@@ -1719,7 +1812,7 @@
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="18"/>
       <c r="E37" t="s">
         <v>19</v>
       </c>
@@ -1728,19 +1821,19 @@
       <c r="A38">
         <v>104</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <v>105</v>
       </c>
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="18"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
@@ -1749,94 +1842,94 @@
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="18"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <v>108</v>
       </c>
-      <c r="B41" s="24" t="s">
+      <c r="B41" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
         <v>109</v>
       </c>
-      <c r="B42" s="23" t="s">
+      <c r="B42" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="18"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
         <v>110</v>
       </c>
-      <c r="B43" s="23" t="s">
+      <c r="B43" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="18"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
         <v>111</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B44" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="18"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
         <v>112</v>
       </c>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="18"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
         <v>113</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="18"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
         <v>129</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="18"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>222</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="18"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
         <v>226</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="18"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
         <v>298</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="18"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
         <v>366</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="18"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -1897,28 +1990,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1948,28 +2041,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2195,19 +2288,20 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="17.6153846153846" style="3" customWidth="1"/>
-    <col min="2" max="2" width="64.9038461538462" style="4" customWidth="1"/>
-    <col min="3" max="3" width="41.0288461538462" style="4" customWidth="1"/>
-    <col min="4" max="4" width="57.2019230769231" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.23076923076923" style="5"/>
+    <col min="1" max="1" width="5.44230769230769" style="3" customWidth="1"/>
+    <col min="2" max="2" width="58.3365384615385" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.6923076923077" style="4" customWidth="1"/>
+    <col min="4" max="4" width="50.9519230769231" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.6923076923077" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9.23076923076923" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
@@ -2224,15 +2318,16 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.35" spans="1:4">
+    <row r="2" s="1" customFormat="1" ht="18.35" spans="1:5">
       <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
-    </row>
-    <row r="3" ht="18.35" spans="1:4">
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" ht="18.35" spans="1:5">
       <c r="A3" s="8">
         <v>144</v>
       </c>
@@ -2245,8 +2340,11 @@
       <c r="D3" s="6" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" ht="18.35" spans="1:4">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" ht="18.35" spans="1:5">
       <c r="A4" s="8">
         <v>94</v>
       </c>
@@ -2259,8 +2357,11 @@
       <c r="D4" s="6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>145</v>
       </c>
@@ -2270,8 +2371,12 @@
       <c r="C5" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>589</v>
       </c>
@@ -2281,8 +2386,12 @@
       <c r="C6" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="4"/>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
         <v>590</v>
       </c>
@@ -2291,6 +2400,9 @@
       </c>
       <c r="C7" s="6" t="s">
         <v>57</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2318,7 +2430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" ht="53" spans="1:4">
+    <row r="10" ht="53" spans="1:5">
       <c r="A10" s="3">
         <v>104</v>
       </c>
@@ -2331,8 +2443,11 @@
       <c r="D10" s="11" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="3">
         <v>559</v>
       </c>
@@ -2343,6 +2458,9 @@
         <v>64</v>
       </c>
       <c r="D11" s="12"/>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="3">
@@ -2358,7 +2476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:5">
       <c r="A13" s="3">
         <v>112</v>
       </c>
@@ -2368,8 +2486,12 @@
       <c r="C13" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>113</v>
       </c>
@@ -2379,8 +2501,12 @@
       <c r="C14" s="6" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>226</v>
       </c>
@@ -2390,8 +2516,12 @@
       <c r="C15" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>404</v>
       </c>
@@ -2401,14 +2531,19 @@
       <c r="C16" s="6" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:4">
+      <c r="D16" s="4"/>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
       <c r="A17" s="7" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
@@ -2470,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:4">
+    <row r="22" s="2" customFormat="1" spans="1:5">
       <c r="A22" s="13">
         <v>572</v>
       </c>
@@ -2481,6 +2616,9 @@
         <v>81</v>
       </c>
       <c r="D22" s="15"/>
+      <c r="E22" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" s="2" customFormat="1" spans="1:4">
       <c r="A23" s="13">
@@ -2494,29 +2632,38 @@
       </c>
       <c r="D23" s="15"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:4">
-      <c r="A25" s="16" t="s">
+    <row r="24" s="1" customFormat="1" spans="1:5">
+      <c r="A24" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3">
+        <v>257</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3">
-        <v>257</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>85</v>
+        <v>129</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2524,48 +2671,211 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:3">
       <c r="A28" s="3">
-        <v>199</v>
+        <v>298</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28" s="5">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="3">
-        <v>298</v>
+        <v>988</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="3">
+        <v>1022</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>1457</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="3">
+        <v>270</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="3">
+        <v>700</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="3">
+        <v>617</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="3">
+        <v>623</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="3">
+        <v>971</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="3">
+        <v>987</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3">
+        <v>993</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="3">
+        <v>1315</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="3">
+        <v>1448</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3">
+        <v>1469</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>1602</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A25:D25"/>
+  <mergeCells count="5">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A44:E44"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B10" r:id="rId1" display="Maximum Depth of Binary Tree" tooltip="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
@@ -2574,6 +2884,12 @@
     <hyperlink ref="B15" r:id="rId4" display="Invert Binary Tree" tooltip="https://leetcode.com/problems/invert-binary-tree/"/>
     <hyperlink ref="B20" r:id="rId5" display="Pascal's Triangle II" tooltip="https://leetcode.cn/problems/pascals-triangle-ii/"/>
     <hyperlink ref="B21" r:id="rId6" display="Pascal's Triangle" tooltip="https://leetcode.cn/problems/pascals-triangle/"/>
+    <hyperlink ref="B31" r:id="rId7" display="Pseudo-Palindromic Paths in a Binary Tree" tooltip="https://leetcode.cn/problems/pseudo-palindromic-paths-in-a-binary-tree/"/>
+    <hyperlink ref="B39" r:id="rId8" display="Cousins in Binary Tree" tooltip="https://leetcode.cn/problems/cousins-in-binary-tree/"/>
+    <hyperlink ref="B40" r:id="rId9" display="Sum of Nodes with Even-Valued Grandparent" tooltip="https://leetcode.cn/problems/sum-of-nodes-with-even-valued-grandparent/"/>
+    <hyperlink ref="B41" r:id="rId10" display="Count Good Nodes in Binary Tree" tooltip="https://leetcode.cn/problems/count-good-nodes-in-binary-tree/"/>
+    <hyperlink ref="B42" r:id="rId11" display="Find All The Lonely Nodes" tooltip="https://leetcode.cn/problems/find-all-the-lonely-nodes/"/>
+    <hyperlink ref="B43" r:id="rId12" display="Find Nearest Right Node in Binary Tree" tooltip="https://leetcode.cn/problems/find-nearest-right-node-in-binary-tree/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/alg.xlsx
+++ b/alg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22120" windowHeight="14360" activeTab="3"/>
+    <workbookView windowWidth="26940" windowHeight="11420" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="二叉树" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
   <si>
     <t>2.1 二叉树</t>
   </si>
@@ -273,6 +273,9 @@
     <t>二叉树中的链表</t>
   </si>
   <si>
+    <t>嵌入的写法</t>
+  </si>
+  <si>
     <t>习题1 用遍历的思维解题</t>
   </si>
   <si>
@@ -300,7 +303,7 @@
     <t>Smallest String Starting From Leaf</t>
   </si>
   <si>
-    <t>从页节点的最小字符串</t>
+    <t>从叶节点的最小字符串</t>
   </si>
   <si>
     <t>Sum of Root To Leaf Binary Numbers</t>
@@ -327,7 +330,7 @@
     <t>Search in a Binary Search Tree</t>
   </si>
   <si>
-    <t>二叉搜索树种的搜索</t>
+    <t>二叉搜索树中的搜索</t>
   </si>
   <si>
     <t>Merge Two Binary Trees</t>
@@ -385,6 +388,33 @@
   </si>
   <si>
     <t>习题3 用遍历的思维解题</t>
+  </si>
+  <si>
+    <t>Path Sum III</t>
+  </si>
+  <si>
+    <t>路径总和III</t>
+  </si>
+  <si>
+    <t>Find Bottom Left Tree Value</t>
+  </si>
+  <si>
+    <t>找树左下角的值</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Path Sum IV</t>
+  </si>
+  <si>
+    <t>路径总和IV</t>
+  </si>
+  <si>
+    <t>Find Elements in a Contaminated Binary Tree</t>
+  </si>
+  <si>
+    <t>在受污染的二叉树中查找元素</t>
+  </si>
+  <si>
+    <t>计数</t>
   </si>
 </sst>
 </file>
@@ -392,10 +422,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -441,19 +471,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -464,23 +485,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,10 +500,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,17 +515,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,22 +547,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -563,23 +591,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,19 +642,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,25 +726,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,55 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,67 +816,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -855,8 +885,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,26 +900,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,16 +946,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -934,172 +979,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1118,9 +1148,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,9 +1163,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1154,6 +1178,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,9 +1198,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1519,61 +1543,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="17.55" spans="1:5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="27"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" ht="17.55" spans="1:5">
-      <c r="A4" s="22">
+      <c r="A4" s="21">
         <v>144</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" ht="17.55" spans="1:5">
-      <c r="A5" s="22">
+      <c r="A5" s="21">
         <v>94</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
@@ -1616,19 +1640,19 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>98</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1636,7 +1660,7 @@
       <c r="A13">
         <v>99</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1656,13 +1680,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
@@ -1693,7 +1717,7 @@
       <c r="A23">
         <v>114</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="15" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
@@ -1709,7 +1733,7 @@
       <c r="A25">
         <v>116</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="23" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
@@ -1720,7 +1744,7 @@
       <c r="A26">
         <v>117</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="23" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1730,31 +1754,31 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" ht="17" spans="1:3">
       <c r="A29">
         <v>95</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="17"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>96</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1762,43 +1786,43 @@
       <c r="A31">
         <v>124</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="18"/>
+      <c r="C31" s="17"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>235</v>
       </c>
-      <c r="C32" s="18"/>
+      <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <v>236</v>
       </c>
-      <c r="C33" s="18"/>
+      <c r="C33" s="17"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <v>250</v>
       </c>
-      <c r="C34" s="18"/>
+      <c r="C34" s="17"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <v>333</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="17"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>100</v>
       </c>
-      <c r="B36" s="24" t="s">
+      <c r="B36" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="17" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
@@ -1812,7 +1836,7 @@
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="18"/>
+      <c r="C37" s="17"/>
       <c r="E37" t="s">
         <v>19</v>
       </c>
@@ -1821,19 +1845,19 @@
       <c r="A38">
         <v>104</v>
       </c>
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="18"/>
+      <c r="C38" s="17"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <v>105</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="18"/>
+      <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
@@ -1842,94 +1866,94 @@
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="18"/>
+      <c r="C40" s="17"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <v>108</v>
       </c>
-      <c r="B41" s="25" t="s">
+      <c r="B41" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="18"/>
+      <c r="C41" s="17"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
         <v>109</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="B42" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="18"/>
+      <c r="C42" s="17"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
         <v>110</v>
       </c>
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="18"/>
+      <c r="C43" s="17"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
         <v>111</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="18"/>
+      <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
         <v>112</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="18"/>
+      <c r="C45" s="17"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
         <v>113</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="18"/>
+      <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
         <v>129</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="18"/>
+      <c r="C47" s="17"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>222</v>
       </c>
-      <c r="C48" s="18"/>
+      <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
         <v>226</v>
       </c>
-      <c r="C49" s="18"/>
+      <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
         <v>298</v>
       </c>
-      <c r="C50" s="18"/>
+      <c r="C50" s="17"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
         <v>366</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="17"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -1990,28 +2014,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2041,28 +2065,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2288,10 +2312,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -2305,13 +2329,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -2319,25 +2343,25 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18.35" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" ht="18.35" spans="1:5">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>144</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="5">
@@ -2345,16 +2369,16 @@
       </c>
     </row>
     <row r="4" ht="18.35" spans="1:5">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>94</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="5">
@@ -2365,13 +2389,12 @@
       <c r="A5" s="3">
         <v>145</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="4"/>
       <c r="E5" s="5">
         <v>1</v>
       </c>
@@ -2380,13 +2403,12 @@
       <c r="A6" s="3">
         <v>589</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="4"/>
       <c r="E6" s="5">
         <v>1</v>
       </c>
@@ -2395,10 +2417,10 @@
       <c r="A7" s="3">
         <v>590</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="5">
@@ -2409,13 +2431,13 @@
       <c r="A8" s="3">
         <v>105</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2423,10 +2445,10 @@
       <c r="A9" s="3">
         <v>106</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2434,13 +2456,13 @@
       <c r="A10" s="3">
         <v>104</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="5">
@@ -2451,13 +2473,13 @@
       <c r="A11" s="3">
         <v>559</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="5">
         <v>1</v>
       </c>
@@ -2466,13 +2488,13 @@
       <c r="A12" s="3">
         <v>111</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2480,13 +2502,12 @@
       <c r="A13" s="3">
         <v>112</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="4"/>
       <c r="E13" s="5">
         <v>1</v>
       </c>
@@ -2495,13 +2516,12 @@
       <c r="A14" s="3">
         <v>113</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="4"/>
       <c r="E14" s="5">
         <v>1</v>
       </c>
@@ -2510,13 +2530,12 @@
       <c r="A15" s="3">
         <v>226</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="4"/>
       <c r="E15" s="5">
         <v>1</v>
       </c>
@@ -2525,34 +2544,33 @@
       <c r="A16" s="3">
         <v>404</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="4"/>
       <c r="E16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>100</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E18" s="5">
@@ -2563,10 +2581,10 @@
       <c r="A19" s="3">
         <v>114</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E19" s="5">
@@ -2574,16 +2592,16 @@
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:5">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>119</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E20" s="2">
@@ -2591,65 +2609,70 @@
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="13">
+      <c r="A21" s="11">
         <v>118</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="13">
+      <c r="A22" s="11">
         <v>572</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:4">
-      <c r="A23" s="13">
+    <row r="23" s="2" customFormat="1" spans="1:5">
+      <c r="A23" s="11">
         <v>1367</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="A24" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3">
         <v>257</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>85</v>
+      <c r="B25" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -2663,7 +2686,7 @@
         <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E26" s="5">
         <v>1</v>
@@ -2674,35 +2697,41 @@
         <v>199</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="3">
         <v>298</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="3">
         <v>988</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2710,10 +2739,10 @@
         <v>1022</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E30" s="5">
         <v>1</v>
@@ -2723,64 +2752,76 @@
       <c r="A31" s="3">
         <v>1457</v>
       </c>
-      <c r="B31" s="17" t="s">
-        <v>96</v>
+      <c r="B31" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="A32" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="3">
         <v>270</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>101</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="3">
         <v>700</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>103</v>
+      </c>
+      <c r="E34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="3">
         <v>617</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>105</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="3">
         <v>623</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="E36" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -2788,10 +2829,10 @@
         <v>971</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -2799,75 +2840,131 @@
         <v>987</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="3">
         <v>993</v>
       </c>
-      <c r="B39" s="17" t="s">
-        <v>111</v>
+      <c r="B39" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3">
         <v>1315</v>
       </c>
-      <c r="B40" s="17" t="s">
-        <v>113</v>
+      <c r="B40" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="3">
         <v>1448</v>
       </c>
-      <c r="B41" s="17" t="s">
-        <v>115</v>
+      <c r="B41" s="15" t="s">
+        <v>116</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="3">
         <v>1469</v>
       </c>
-      <c r="B42" s="17" t="s">
-        <v>117</v>
+      <c r="B42" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="3">
         <v>1602</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>119</v>
+      <c r="B43" s="15" t="s">
+        <v>120</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="A44" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3">
+        <v>437</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3">
+        <v>513</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3">
+        <v>666</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3">
+        <v>1261</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E49" s="5">
+        <f>SUM(E2:E43)</f>
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2890,6 +2987,8 @@
     <hyperlink ref="B41" r:id="rId10" display="Count Good Nodes in Binary Tree" tooltip="https://leetcode.cn/problems/count-good-nodes-in-binary-tree/"/>
     <hyperlink ref="B42" r:id="rId11" display="Find All The Lonely Nodes" tooltip="https://leetcode.cn/problems/find-all-the-lonely-nodes/"/>
     <hyperlink ref="B43" r:id="rId12" display="Find Nearest Right Node in Binary Tree" tooltip="https://leetcode.cn/problems/find-nearest-right-node-in-binary-tree/"/>
+    <hyperlink ref="B47" r:id="rId13" display=" Path Sum IV" tooltip="https://leetcode.cn/problems/path-sum-iv/"/>
+    <hyperlink ref="B48" r:id="rId14" display="Find Elements in a Contaminated Binary Tree" tooltip="https://leetcode.cn/problems/find-elements-in-a-contaminated-binary-tree/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/alg.xlsx
+++ b/alg.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="154">
   <si>
     <t>2.1 二叉树</t>
   </si>
@@ -191,15 +191,6 @@
   </si>
   <si>
     <t>N叉树后遍历</t>
-  </si>
-  <si>
-    <t>前序中序 构建树</t>
-  </si>
-  <si>
-    <t>想还原一颗二叉树，只需要确定他的根+左右子树</t>
-  </si>
-  <si>
-    <t>中序后序 遍历树</t>
   </si>
   <si>
     <t>二叉树的最大深度</t>
@@ -276,7 +267,7 @@
     <t>嵌入的写法</t>
   </si>
   <si>
-    <t>习题1 用遍历的思维解题</t>
+    <t>习题1 用遍历的思维解题-1</t>
   </si>
   <si>
     <t>Binary Tree Paths</t>
@@ -318,7 +309,7 @@
     <t>二叉树中的伪回文路径</t>
   </si>
   <si>
-    <t>习题2 用遍历的思维解题</t>
+    <t>习题2 用遍历的思维解题-2</t>
   </si>
   <si>
     <t>Closest Binary Search Tree Value</t>
@@ -387,7 +378,7 @@
     <t>找到二叉树中最近的右侧节点</t>
   </si>
   <si>
-    <t>习题3 用遍历的思维解题</t>
+    <t>习题3 用遍历的思维解题-3</t>
   </si>
   <si>
     <t>Path Sum III</t>
@@ -412,6 +403,81 @@
   </si>
   <si>
     <t>在受污染的二叉树中查找元素</t>
+  </si>
+  <si>
+    <t>习题 4  用分解的思维解题</t>
+  </si>
+  <si>
+    <t>从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>从中序与后序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from Preorder and Postorder Traversal</t>
+  </si>
+  <si>
+    <t>根据前序和后序遍历构造二叉树</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>验证二叉树的前序序列化</t>
+  </si>
+  <si>
+    <t>习题 二叉搜索树经典例题-1</t>
+  </si>
+  <si>
+    <t>恢复二叉搜索树</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inorder Successor in BST</t>
+  </si>
+  <si>
+    <t>二叉搜索树中的中序后继</t>
+  </si>
+  <si>
+    <t>Inorder Successor in BST II</t>
+  </si>
+  <si>
+    <t>二叉搜索树中的中序后继II</t>
+  </si>
+  <si>
+    <t>Trim a Binary Search Tree</t>
+  </si>
+  <si>
+    <t>修建二叉搜索树</t>
+  </si>
+  <si>
+    <t>Second Minimum Node In a Binary Tree</t>
+  </si>
+  <si>
+    <t>二叉树中第二小的节点</t>
+  </si>
+  <si>
+    <t>Split BST</t>
+  </si>
+  <si>
+    <t>拆分二叉搜索树</t>
+  </si>
+  <si>
+    <t>Binary Tree Pruning</t>
+  </si>
+  <si>
+    <t>二叉树剪枝</t>
+  </si>
+  <si>
+    <t>Construct Binary Search Tree from Preorder Traversal</t>
+  </si>
+  <si>
+    <t>前序遍历构造二叉搜索树</t>
+  </si>
+  <si>
+    <t>Two Sum BSTs</t>
+  </si>
+  <si>
+    <t>查找两棵二叉搜索树之和</t>
   </si>
   <si>
     <t>计数</t>
@@ -1129,7 +1195,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1139,6 +1205,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1180,6 +1249,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1543,61 +1621,61 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="17.55" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="25"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" ht="17.55" spans="1:5">
-      <c r="A4" s="21">
+      <c r="A4" s="25">
         <v>144</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" ht="17.55" spans="1:5">
-      <c r="A5" s="21">
+      <c r="A5" s="25">
         <v>94</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
@@ -1640,19 +1718,19 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12">
         <v>98</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1660,7 +1738,7 @@
       <c r="A13">
         <v>99</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1680,13 +1758,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:1">
       <c r="A18">
@@ -1717,7 +1795,7 @@
       <c r="A23">
         <v>114</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E23" t="s">
@@ -1733,7 +1811,7 @@
       <c r="A25">
         <v>116</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="27" t="s">
         <v>20</v>
       </c>
       <c r="E25" t="s">
@@ -1744,7 +1822,7 @@
       <c r="A26">
         <v>117</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1754,31 +1832,31 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" ht="17" spans="1:3">
       <c r="A29">
         <v>95</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="21"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
         <v>96</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="21" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1786,43 +1864,43 @@
       <c r="A31">
         <v>124</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="21"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
         <v>235</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="21"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
         <v>236</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="21"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
         <v>250</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="21"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
         <v>333</v>
       </c>
-      <c r="C35" s="17"/>
+      <c r="C35" s="21"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
         <v>100</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E36" t="s">
@@ -1836,7 +1914,7 @@
       <c r="B37" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="21"/>
       <c r="E37" t="s">
         <v>19</v>
       </c>
@@ -1845,19 +1923,19 @@
       <c r="A38">
         <v>104</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="21"/>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
         <v>105</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="21"/>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
@@ -1866,94 +1944,94 @@
       <c r="B40" t="s">
         <v>32</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="21"/>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
         <v>108</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="17"/>
+      <c r="C41" s="21"/>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
         <v>109</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="21"/>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
         <v>110</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="21"/>
     </row>
     <row r="44" spans="1:3">
       <c r="A44">
         <v>111</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="21"/>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
         <v>112</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="17"/>
+      <c r="C45" s="21"/>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
         <v>113</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C46" s="17"/>
+      <c r="C46" s="21"/>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
         <v>129</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="17"/>
+      <c r="C47" s="21"/>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
         <v>222</v>
       </c>
-      <c r="C48" s="17"/>
+      <c r="C48" s="21"/>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
         <v>226</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="21"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
         <v>298</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="21"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
         <v>366</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="21"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
@@ -2014,28 +2092,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2065,28 +2143,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.55" spans="1:5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" ht="17.55" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2312,683 +2390,954 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="17.6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.44230769230769" style="3" customWidth="1"/>
-    <col min="2" max="2" width="58.3365384615385" style="4" customWidth="1"/>
-    <col min="3" max="3" width="32.6923076923077" style="4" customWidth="1"/>
-    <col min="4" max="4" width="50.9519230769231" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.6923076923077" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="9.23076923076923" style="5"/>
+    <col min="1" max="1" width="5.44230769230769" style="4" customWidth="1"/>
+    <col min="2" max="2" width="58.3365384615385" style="5" customWidth="1"/>
+    <col min="3" max="3" width="36.2211538461538" style="5" customWidth="1"/>
+    <col min="4" max="4" width="50.9519230769231" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.6923076923077" style="6" customWidth="1"/>
+    <col min="6" max="16382" width="9.23076923076923" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="18.35" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" ht="18.35" spans="1:5">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>144</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="18.35" spans="1:5">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>94</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>145</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>589</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>590</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3">
-        <v>105</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="4" t="s">
+    <row r="8" ht="53" spans="1:5">
+      <c r="A8" s="4">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3">
-        <v>106</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>559</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" ht="53" spans="1:5">
-      <c r="A10" s="3">
-        <v>104</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4">
+        <v>111</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="5">
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>112</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>559</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="5">
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>113</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3">
-        <v>111</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="4" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>226</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3">
-        <v>112</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3">
-        <v>113</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="4">
+        <v>404</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E14" s="5">
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3">
-        <v>226</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="5">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4">
+        <v>100</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3">
-        <v>404</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C16" s="4" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>114</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E17" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="1:5">
-      <c r="A17" s="6" t="s">
+    <row r="18" s="2" customFormat="1" spans="1:5">
+      <c r="A18" s="12">
+        <v>119</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="3">
-        <v>100</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="5">
+      <c r="D18" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="3">
-        <v>114</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="5">
+    <row r="19" s="2" customFormat="1" spans="1:5">
+      <c r="A19" s="12">
+        <v>118</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" spans="1:5">
-      <c r="A20" s="11">
-        <v>119</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="A20" s="12">
+        <v>572</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="14" t="s">
         <v>78</v>
       </c>
+      <c r="D20" s="14"/>
       <c r="E20" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" spans="1:5">
-      <c r="A21" s="11">
+      <c r="A21" s="12">
+        <v>1367</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>257</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>129</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>199</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>298</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>988</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>1022</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4">
+        <v>1457</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>270</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>700</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4">
+        <v>617</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4">
+        <v>623</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4">
+        <v>971</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4">
+        <v>987</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4">
+        <v>993</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>1315</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4">
+        <v>1448</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4">
+        <v>1469</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4">
+        <v>1602</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2">
+      <c r="E41" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4">
+        <v>437</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4">
+        <v>513</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4">
+        <v>666</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4">
+        <v>1261</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:5">
-      <c r="A22" s="11">
-        <v>572</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:5">
-      <c r="A23" s="11">
-        <v>1367</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E23" s="2">
+    <row r="47" s="3" customFormat="1" spans="1:5">
+      <c r="A47" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="18" spans="1:5">
+      <c r="A48" s="18">
+        <v>105</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:5">
+      <c r="A49" s="18">
+        <v>106</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:5">
+      <c r="A50" s="18">
+        <v>889</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:5">
+      <c r="A51" s="18">
+        <v>331</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:5">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:5">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:5">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:5">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:5">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4">
+        <v>99</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4">
+        <v>285</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4">
+        <v>510</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4">
+        <v>669</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4">
+        <v>671</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="E62" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3">
-        <v>257</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3">
-        <v>129</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="3">
-        <v>199</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3">
-        <v>298</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="3">
-        <v>988</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E29" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="3">
-        <v>1022</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3">
-        <v>1457</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="3">
-        <v>270</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3">
-        <v>700</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="3">
-        <v>617</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="3">
-        <v>623</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E36" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="3">
-        <v>971</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="3">
-        <v>987</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="3">
-        <v>993</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="3">
-        <v>1315</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="3">
-        <v>1448</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="3">
-        <v>1469</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="3">
-        <v>1602</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="3">
-        <v>437</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="3">
-        <v>513</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="3">
-        <v>666</v>
-      </c>
-      <c r="B47" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="3">
-        <v>1261</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5">
-      <c r="D49" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E49" s="5">
-        <f>SUM(E2:E43)</f>
-        <v>24</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="4">
+        <v>776</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="4">
+        <v>814</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="4">
+        <v>1008</v>
+      </c>
+      <c r="B65" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="4">
+        <v>1214</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="17"/>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="17"/>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="17"/>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="17"/>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="17"/>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="17"/>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="17"/>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="17"/>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="17"/>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="17"/>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="17"/>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="17"/>
+    </row>
+    <row r="87" spans="4:5">
+      <c r="D87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" s="6">
+        <f>SUM(E2:E86)</f>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A57:E57"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" display="Maximum Depth of Binary Tree" tooltip="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
-    <hyperlink ref="B13" r:id="rId2" display="Path Sum" tooltip="https://leetcode.com/problems/path-sum/"/>
-    <hyperlink ref="B18" r:id="rId3" display="Same Tree" tooltip="https://leetcode.com/problems/same-tree/"/>
-    <hyperlink ref="B15" r:id="rId4" display="Invert Binary Tree" tooltip="https://leetcode.com/problems/invert-binary-tree/"/>
-    <hyperlink ref="B20" r:id="rId5" display="Pascal's Triangle II" tooltip="https://leetcode.cn/problems/pascals-triangle-ii/"/>
-    <hyperlink ref="B21" r:id="rId6" display="Pascal's Triangle" tooltip="https://leetcode.cn/problems/pascals-triangle/"/>
-    <hyperlink ref="B31" r:id="rId7" display="Pseudo-Palindromic Paths in a Binary Tree" tooltip="https://leetcode.cn/problems/pseudo-palindromic-paths-in-a-binary-tree/"/>
-    <hyperlink ref="B39" r:id="rId8" display="Cousins in Binary Tree" tooltip="https://leetcode.cn/problems/cousins-in-binary-tree/"/>
-    <hyperlink ref="B40" r:id="rId9" display="Sum of Nodes with Even-Valued Grandparent" tooltip="https://leetcode.cn/problems/sum-of-nodes-with-even-valued-grandparent/"/>
-    <hyperlink ref="B41" r:id="rId10" display="Count Good Nodes in Binary Tree" tooltip="https://leetcode.cn/problems/count-good-nodes-in-binary-tree/"/>
-    <hyperlink ref="B42" r:id="rId11" display="Find All The Lonely Nodes" tooltip="https://leetcode.cn/problems/find-all-the-lonely-nodes/"/>
-    <hyperlink ref="B43" r:id="rId12" display="Find Nearest Right Node in Binary Tree" tooltip="https://leetcode.cn/problems/find-nearest-right-node-in-binary-tree/"/>
-    <hyperlink ref="B47" r:id="rId13" display=" Path Sum IV" tooltip="https://leetcode.cn/problems/path-sum-iv/"/>
-    <hyperlink ref="B48" r:id="rId14" display="Find Elements in a Contaminated Binary Tree" tooltip="https://leetcode.cn/problems/find-elements-in-a-contaminated-binary-tree/"/>
+    <hyperlink ref="B8" r:id="rId1" display="Maximum Depth of Binary Tree" tooltip="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="B11" r:id="rId2" display="Path Sum" tooltip="https://leetcode.com/problems/path-sum/"/>
+    <hyperlink ref="B16" r:id="rId3" display="Same Tree" tooltip="https://leetcode.com/problems/same-tree/"/>
+    <hyperlink ref="B13" r:id="rId4" display="Invert Binary Tree" tooltip="https://leetcode.com/problems/invert-binary-tree/"/>
+    <hyperlink ref="B18" r:id="rId5" display="Pascal's Triangle II" tooltip="https://leetcode.cn/problems/pascals-triangle-ii/"/>
+    <hyperlink ref="B19" r:id="rId6" display="Pascal's Triangle" tooltip="https://leetcode.cn/problems/pascals-triangle/"/>
+    <hyperlink ref="B29" r:id="rId7" display="Pseudo-Palindromic Paths in a Binary Tree" tooltip="https://leetcode.cn/problems/pseudo-palindromic-paths-in-a-binary-tree/"/>
+    <hyperlink ref="B37" r:id="rId8" display="Cousins in Binary Tree" tooltip="https://leetcode.cn/problems/cousins-in-binary-tree/"/>
+    <hyperlink ref="B38" r:id="rId9" display="Sum of Nodes with Even-Valued Grandparent" tooltip="https://leetcode.cn/problems/sum-of-nodes-with-even-valued-grandparent/"/>
+    <hyperlink ref="B39" r:id="rId10" display="Count Good Nodes in Binary Tree" tooltip="https://leetcode.cn/problems/count-good-nodes-in-binary-tree/"/>
+    <hyperlink ref="B40" r:id="rId11" display="Find All The Lonely Nodes" tooltip="https://leetcode.cn/problems/find-all-the-lonely-nodes/"/>
+    <hyperlink ref="B41" r:id="rId12" display="Find Nearest Right Node in Binary Tree" tooltip="https://leetcode.cn/problems/find-nearest-right-node-in-binary-tree/"/>
+    <hyperlink ref="B45" r:id="rId13" display=" Path Sum IV" tooltip="https://leetcode.cn/problems/path-sum-iv/"/>
+    <hyperlink ref="B46" r:id="rId14" display="Find Elements in a Contaminated Binary Tree" tooltip="https://leetcode.cn/problems/find-elements-in-a-contaminated-binary-tree/"/>
+    <hyperlink ref="B60" r:id="rId15" display="Inorder Successor in BST II" tooltip="https://leetcode.cn/problems/inorder-successor-in-bst-ii/"/>
+    <hyperlink ref="B61" r:id="rId16" display="Trim a Binary Search Tree" tooltip="https://leetcode.cn/problems/trim-a-binary-search-tree/"/>
+    <hyperlink ref="B63" r:id="rId17" display="Split BST" tooltip="https://leetcode.cn/problems/split-bst/"/>
+    <hyperlink ref="B64" r:id="rId18" display="Binary Tree Pruning" tooltip="https://leetcode.cn/problems/binary-tree-pruning/"/>
+    <hyperlink ref="B65" r:id="rId19" display="Construct Binary Search Tree from Preorder Traversal" tooltip="https://leetcode.cn/problems/construct-binary-search-tree-from-preorder-traversal/"/>
+    <hyperlink ref="B66" r:id="rId20" display="Two Sum BSTs" tooltip="https://leetcode.cn/problems/two-sum-bsts/"/>
+    <hyperlink ref="B49" r:id="rId21" display="Construct Binary Tree from Inorder and Postorder Traversal" tooltip="https://leetcode.cn/problems/construct-binary-tree-from-inorder-and-postorder-traversal/"/>
+    <hyperlink ref="B50" r:id="rId22" display="Construct Binary Tree from Preorder and Postorder Traversal" tooltip="https://leetcode.cn/problems/construct-binary-tree-from-preorder-and-postorder-traversal/"/>
+    <hyperlink ref="B51" r:id="rId23" display="Verify Preorder Serialization of a Binary Tree" tooltip="https://leetcode.cn/problems/verify-preorder-serialization-of-a-binary-tree/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
